--- a/LIQ_20196_2_1.xlsx
+++ b/LIQ_20196_2_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>NOMBRE:</t>
   </si>
@@ -37,6 +37,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>4.362.457</t>
+  </si>
+  <si>
     <t>DIAS TRABAJADOS:</t>
   </si>
   <si>
@@ -49,9 +52,6 @@
     <t>HORA NEGATIVA:</t>
   </si>
   <si>
-    <t>MANO DE OBRA (Gs):</t>
-  </si>
-  <si>
     <t>EQUIPO DE PROTECCION PERSONAL (EPP)</t>
   </si>
   <si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>TOTAL A PAGAR:</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>0</t>
@@ -141,7 +138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -181,39 +178,34 @@
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="3:4">
@@ -221,7 +213,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -236,8 +228,8 @@
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -310,6 +302,16 @@
       </c>
       <c r="D26" s="1" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
